--- a/Список проектов.xlsx
+++ b/Список проектов.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2013\Projects\Work\dpa\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCA6542-0070-422A-A8D0-223D15C3447C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!Прошу внести проекты" sheetId="3" r:id="rId1"/>
-    <sheet name="Старые проекты" sheetId="4" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="5" r:id="rId2"/>
     <sheet name="структ. подр." sheetId="2" r:id="rId3"/>
+    <sheet name="Старые проекты" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!Прошу внести проекты'!$A$2:$AN$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Лист1!$B$1:$B$21</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2688" uniqueCount="934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3017" uniqueCount="1007">
   <si>
     <t>TypeProject</t>
   </si>
@@ -2828,12 +2834,231 @@
   </si>
   <si>
     <t>Фактическая сумма (указывайте валюту)</t>
+  </si>
+  <si>
+    <t>Налко</t>
+  </si>
+  <si>
+    <t>Инвариант</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Т/14/4.01.06.25  </t>
+  </si>
+  <si>
+    <t>Спецгазпром</t>
+  </si>
+  <si>
+    <t>Системосервис</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T/15/4.11.01.18 </t>
+  </si>
+  <si>
+    <t>Приметалз</t>
+  </si>
+  <si>
+    <t>NHI</t>
+  </si>
+  <si>
+    <t>Шенк Украина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Т/14/4.01.07.18  </t>
+  </si>
+  <si>
+    <t>ДП Сименс</t>
+  </si>
+  <si>
+    <t>АСУТП интенсивного миксера №1</t>
+  </si>
+  <si>
+    <t>31.09.2019</t>
+  </si>
+  <si>
+    <t>Модернизация АСУТП ТВД-10 ТЭЦ-2</t>
+  </si>
+  <si>
+    <t>Автоматизация ТерраВатт Групп</t>
+  </si>
+  <si>
+    <t xml:space="preserve">УОВ ХВО-1 ТЭЦ-1 </t>
+  </si>
+  <si>
+    <t>Техэнергохим</t>
+  </si>
+  <si>
+    <t>АСУТП рукавных фильтров В5, В6</t>
+  </si>
+  <si>
+    <t>FLS</t>
+  </si>
+  <si>
+    <t>АСУТП электрофильтр аспирации В3 (АМ5,6)</t>
+  </si>
+  <si>
+    <t>АСУТП возврата АЦ№2</t>
+  </si>
+  <si>
+    <t>АСУТП процесса подготовки шихты АЦ3 (Очередь II)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T/19/4.01.08.01 </t>
+  </si>
+  <si>
+    <t>Ekoplant</t>
+  </si>
+  <si>
+    <t>АСУТП загрузки шихтовых бункеров  АЦ-2</t>
+  </si>
+  <si>
+    <t>АСУТП вентиляторной градирни 16Б</t>
+  </si>
+  <si>
+    <t>Далгакиран</t>
+  </si>
+  <si>
+    <t>АСУТП вентиляторной градирни 23</t>
+  </si>
+  <si>
+    <t>Газопровод коксового газа от КХП до до потребителей МП. Часть автоматизации</t>
+  </si>
+  <si>
+    <t>Меттранссервис</t>
+  </si>
+  <si>
+    <t>Строительство новой фабрики окомкования</t>
+  </si>
+  <si>
+    <t>Увеличение производительности основного производственного участка №2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T/18/1.00.03.02 </t>
+  </si>
+  <si>
+    <t>Модернизация «Автоматизированной системы управления технологическим процессом «Поток» углеподготовительного цеха (под ключ)»</t>
+  </si>
+  <si>
+    <t>Повышение надёжности работы системы АСУТП</t>
+  </si>
+  <si>
+    <t>T/17/4.11.01.04</t>
+  </si>
+  <si>
+    <t>КХП. Оборудование акцизного склада системой учета бензола (под ключ)</t>
+  </si>
+  <si>
+    <t>T/19/3.00.04.17</t>
+  </si>
+  <si>
+    <t>Пост «Входной». Строительство ж/д весов на жд/пути №5 (горловина ст. Ново- Бункерная)</t>
+  </si>
+  <si>
+    <t>T/16/4.11.01.46</t>
+  </si>
+  <si>
+    <t>Строительство ж. д. весов на перегоне Ст.Восточная – ст. Кривой Рог Главный</t>
+  </si>
+  <si>
+    <t>Автоматическое 100% взвешивание всего грузопотока на перегоне между станциями Восточная - Кривой Рог-Главный , с возможностью оформления сопутствующих отвесных документов и передачей результатов взвешивания в центральную базу данных взвешиваний АМКР</t>
+  </si>
+  <si>
+    <t>Т/19/4.11..</t>
+  </si>
+  <si>
+    <t>Комплекс шихтоподачи. Реконструкция узла рассева мелочи агломерата.</t>
+  </si>
+  <si>
+    <t>Реконструкция комплекса ДП-9. Строительство установки грануляции шлака.</t>
+  </si>
+  <si>
+    <t>Реконструкция комплекса ДП-9. Центральный узел.</t>
+  </si>
+  <si>
+    <t>Комплекс шихтоподачи. Реконструкция системы весодозирования.</t>
+  </si>
+  <si>
+    <t>CISDI</t>
+  </si>
+  <si>
+    <t>Название проекта_en</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Цель проета en</t>
+  </si>
+  <si>
+    <t>Установка 2-х дробилок</t>
+  </si>
+  <si>
+    <t>Установка грохота ГИCТ-62У</t>
+  </si>
+  <si>
+    <t>Установка грохота ГИТ-52</t>
+  </si>
+  <si>
+    <t>Установка конвейеров</t>
+  </si>
+  <si>
+    <t>Установка металлодетекторов</t>
+  </si>
+  <si>
+    <t>АСУТП дробильной фабрики</t>
+  </si>
+  <si>
+    <t>Уралмаш (ОМЗ)</t>
+  </si>
+  <si>
+    <t>Drilltech Group LLC</t>
+  </si>
+  <si>
+    <t>ООО "КЗТМ"</t>
+  </si>
+  <si>
+    <t>ООО НПП Крамтехцентр</t>
+  </si>
+  <si>
+    <t>НПП Славутич</t>
+  </si>
+  <si>
+    <t>ВФ ООО КСК-Автоматизация</t>
+  </si>
+  <si>
+    <t>АСУТП агломашины №4 (пакет №1, основное техн.об-е) АЦ2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> АСУТП агломашины №4 (собственно а/м, эксгаутер, экомониторинг) АЦ2</t>
+  </si>
+  <si>
+    <t>АСУТП электрофильтра а/м4 (ГО)</t>
+  </si>
+  <si>
+    <t>CIE</t>
+  </si>
+  <si>
+    <t>АСУТП электрофильтра а/м1 (ГО ЭФ1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АСУТП электрофильтр аспирации В2 </t>
+  </si>
+  <si>
+    <t>1-грн 2-$</t>
+  </si>
+  <si>
+    <t>europe\ealevchenko</t>
+  </si>
+  <si>
+    <t>1. выполнение требований «Постанови кабінету міністрів України від 22 листопада 2017 року №891. Про затвердження Порядку ведення Єдино-го державного реєстру витратомірів-лічильників і рівнемірів - лічильників рівня пального у резервуарі, передачі облікових даних з них електронними засобами зв'язку»; 2. выполнение требований, согласно внесенным изменениям в Налоговый кодекс Украины зарегистрированным 23 ноября 2018 года рег. № 2628-VIII.</t>
+  </si>
+  <si>
+    <t>1. автоматическое 100% взвешивание всех входящих на станцию Ново-Бункерная и выходящих из неё ж/д составов, с оформлением сопутствующих отвесных документов и передачей результатов взвешивания в единую базу данных 2. разделение поступающих грузопотоков по направлениям – появляется возможность приема грузов для ДЦ№2 и ГД на ст. Новобункерная; 3. высвобождение путей для приема поездов в адрес предприятия (уход от брошенных поездов); 4. уменьшение оборота вагонов на предприятии.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2889,7 +3114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2901,6 +3126,17 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3181,154 +3417,3893 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AR46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="AK55" sqref="AK55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="80" customWidth="1"/>
+    <col min="6" max="7" width="93.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" customWidth="1"/>
-    <col min="24" max="24" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.85546875" customWidth="1"/>
+    <col min="18" max="18" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5703125" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" customWidth="1"/>
+    <col min="22" max="22" width="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6" customWidth="1"/>
+    <col min="24" max="24" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.5703125" customWidth="1"/>
+    <col min="26" max="26" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.140625" customWidth="1"/>
+    <col min="28" max="28" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.5703125" customWidth="1"/>
+    <col min="30" max="30" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.5703125" customWidth="1"/>
+    <col min="32" max="32" width="6" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6" customWidth="1"/>
+    <col min="34" max="34" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6.5703125" customWidth="1"/>
+    <col min="36" max="36" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="8.140625" customWidth="1"/>
+    <col min="39" max="39" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="20.42578125" customWidth="1"/>
+    <col min="43" max="43" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="6" t="s">
-        <v>932</v>
-      </c>
+    <row r="1" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6" t="s">
-        <v>933</v>
-      </c>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
+      <c r="P1" s="7" t="s">
+        <v>932</v>
+      </c>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
       <c r="X1" s="7"/>
       <c r="Y1" s="7"/>
-    </row>
-    <row r="2" spans="1:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="7" t="s">
+        <v>933</v>
+      </c>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="7"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+      <c r="AN1" s="6"/>
+    </row>
+    <row r="2" spans="1:44" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
+        <v>982</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="6" t="s">
+        <v>984</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="L2" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="M2" s="6" t="s">
         <v>931</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="N2" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="O2" s="6" t="s">
+        <v>1003</v>
+      </c>
+      <c r="P2" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="S2" s="6"/>
+      <c r="T2" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="U2" s="6"/>
+      <c r="V2" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="W2" s="6"/>
+      <c r="X2" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="AN2" s="6" t="s">
         <v>930</v>
       </c>
     </row>
+    <row r="3" spans="1:44" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8">
+        <v>5</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="H3" s="8">
+        <v>5</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8">
+        <v>5</v>
+      </c>
+      <c r="K3" s="10">
+        <v>41923</v>
+      </c>
+      <c r="L3" s="11">
+        <v>1</v>
+      </c>
+      <c r="M3" s="12">
+        <v>42427</v>
+      </c>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="8">
+        <v>4</v>
+      </c>
+      <c r="AN3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AP3" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AQ3" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AR3" s="8" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>11</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8">
+        <v>5</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>697</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>697</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="H4" s="8">
+        <v>5</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8">
+        <v>5</v>
+      </c>
+      <c r="K4" s="10">
+        <v>42736</v>
+      </c>
+      <c r="L4" s="11">
+        <v>1</v>
+      </c>
+      <c r="M4" s="12">
+        <v>43205</v>
+      </c>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="8"/>
+      <c r="AM4" s="8">
+        <v>4</v>
+      </c>
+      <c r="AN4" s="8">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AP4" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AQ4" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AR4" s="8" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>13</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>5</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>945</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>945</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="H5" s="8">
+        <v>5</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8">
+        <v>5</v>
+      </c>
+      <c r="K5" s="10">
+        <v>42736</v>
+      </c>
+      <c r="L5" s="11">
+        <v>1</v>
+      </c>
+      <c r="M5" s="12">
+        <v>43296</v>
+      </c>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="8"/>
+      <c r="AL5" s="8"/>
+      <c r="AM5" s="8">
+        <v>4</v>
+      </c>
+      <c r="AN5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AP5" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AQ5" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AR5" s="8" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>20</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8">
+        <v>5</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>998</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>998</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="H6" s="8">
+        <v>5</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8">
+        <v>5</v>
+      </c>
+      <c r="K6" s="10">
+        <v>43393</v>
+      </c>
+      <c r="L6" s="11">
+        <v>1</v>
+      </c>
+      <c r="M6" s="12">
+        <v>43829</v>
+      </c>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8">
+        <v>4</v>
+      </c>
+      <c r="AN6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AP6" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AQ6" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AR6" s="8" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>22</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8">
+        <v>5</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>954</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>954</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="H7" s="8">
+        <v>5</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8">
+        <v>5</v>
+      </c>
+      <c r="K7" s="10">
+        <v>42370</v>
+      </c>
+      <c r="L7" s="11">
+        <v>1</v>
+      </c>
+      <c r="M7" s="12">
+        <v>43830</v>
+      </c>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="8"/>
+      <c r="AL7" s="8"/>
+      <c r="AM7" s="8">
+        <v>4</v>
+      </c>
+      <c r="AN7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AP7" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AQ7" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AR7" s="8" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>19</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8">
+        <v>5</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>997</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>997</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="H8" s="8">
+        <v>5</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8">
+        <v>5</v>
+      </c>
+      <c r="K8" s="10">
+        <v>43393</v>
+      </c>
+      <c r="L8" s="11">
+        <v>2</v>
+      </c>
+      <c r="M8" s="12">
+        <v>43829</v>
+      </c>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="8"/>
+      <c r="AM8" s="8">
+        <v>4</v>
+      </c>
+      <c r="AN8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AP8" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AQ8" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AR8" s="8" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>41</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8">
+        <v>8</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>979</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>979</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="H9" s="8">
+        <v>8</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="11">
+        <v>3</v>
+      </c>
+      <c r="M9" s="12"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="8"/>
+      <c r="AL9" s="8"/>
+      <c r="AM9" s="8">
+        <v>3</v>
+      </c>
+      <c r="AN9" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AP9" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AQ9" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AR9" s="8" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>42</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8">
+        <v>8</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>978</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>978</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="H10" s="8">
+        <v>8</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="11">
+        <v>3</v>
+      </c>
+      <c r="M10" s="12"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="8"/>
+      <c r="AM10" s="8">
+        <v>3</v>
+      </c>
+      <c r="AN10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AP10" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AQ10" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AR10" s="8" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>32</v>
+      </c>
+      <c r="B11" s="8">
+        <v>2</v>
+      </c>
+      <c r="C11" s="8">
+        <v>33</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>986</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>986</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="H11" s="8">
+        <v>33</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="J11" s="8">
+        <v>27</v>
+      </c>
+      <c r="K11" s="10">
+        <v>43122</v>
+      </c>
+      <c r="L11" s="11">
+        <v>4</v>
+      </c>
+      <c r="M11" s="12">
+        <v>43738</v>
+      </c>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="8"/>
+      <c r="AL11" s="8"/>
+      <c r="AM11" s="8">
+        <v>14</v>
+      </c>
+      <c r="AN11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AP11" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AQ11" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AR11" s="8" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>24</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8">
+        <v>5</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="H12" s="8">
+        <v>5</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8">
+        <v>5</v>
+      </c>
+      <c r="K12" s="10">
+        <v>43221</v>
+      </c>
+      <c r="L12" s="11">
+        <v>5</v>
+      </c>
+      <c r="M12" s="12">
+        <v>44195</v>
+      </c>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="8"/>
+      <c r="AL12" s="8"/>
+      <c r="AM12" s="8">
+        <v>4</v>
+      </c>
+      <c r="AN12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AP12" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AQ12" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AR12" s="8" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>17</v>
+      </c>
+      <c r="B13" s="8">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8">
+        <v>5</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>951</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>951</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="H13" s="8">
+        <v>5</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8">
+        <v>5</v>
+      </c>
+      <c r="K13" s="10">
+        <v>42736</v>
+      </c>
+      <c r="L13" s="11">
+        <v>6</v>
+      </c>
+      <c r="M13" s="12">
+        <v>43250</v>
+      </c>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="8"/>
+      <c r="AK13" s="8"/>
+      <c r="AL13" s="8"/>
+      <c r="AM13" s="8">
+        <v>4</v>
+      </c>
+      <c r="AN13" s="8">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AP13" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AQ13" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AR13" s="8" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>18</v>
+      </c>
+      <c r="B14" s="8">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8">
+        <v>5</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>953</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>953</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="H14" s="8">
+        <v>5</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8">
+        <v>5</v>
+      </c>
+      <c r="K14" s="10">
+        <v>42736</v>
+      </c>
+      <c r="L14" s="11">
+        <v>6</v>
+      </c>
+      <c r="M14" s="12">
+        <v>43250</v>
+      </c>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="8"/>
+      <c r="AK14" s="8"/>
+      <c r="AL14" s="8"/>
+      <c r="AM14" s="8">
+        <v>4</v>
+      </c>
+      <c r="AN14" s="8">
+        <v>1</v>
+      </c>
+      <c r="AO14" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AP14" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AQ14" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AR14" s="8" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>21</v>
+      </c>
+      <c r="B15" s="8">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8">
+        <v>5</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>999</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>999</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="H15" s="8">
+        <v>5</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8">
+        <v>5</v>
+      </c>
+      <c r="K15" s="10">
+        <v>43393</v>
+      </c>
+      <c r="L15" s="11">
+        <v>6</v>
+      </c>
+      <c r="M15" s="12">
+        <v>43829</v>
+      </c>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="8"/>
+      <c r="AJ15" s="8"/>
+      <c r="AK15" s="8"/>
+      <c r="AL15" s="8"/>
+      <c r="AM15" s="8">
+        <v>4</v>
+      </c>
+      <c r="AN15" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AP15" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AQ15" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AR15" s="8" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>25</v>
+      </c>
+      <c r="B16" s="8">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8">
+        <v>5</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="H16" s="8">
+        <v>5</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8">
+        <v>5</v>
+      </c>
+      <c r="K16" s="10">
+        <v>42736</v>
+      </c>
+      <c r="L16" s="11">
+        <v>6</v>
+      </c>
+      <c r="M16" s="12">
+        <v>44195</v>
+      </c>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="8"/>
+      <c r="AJ16" s="8"/>
+      <c r="AK16" s="8"/>
+      <c r="AL16" s="8"/>
+      <c r="AM16" s="8">
+        <v>4</v>
+      </c>
+      <c r="AN16" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AP16" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AQ16" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AR16" s="8" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>6</v>
+      </c>
+      <c r="B17" s="8">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8">
+        <v>5</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="H17" s="8">
+        <v>5</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8">
+        <v>5</v>
+      </c>
+      <c r="K17" s="10">
+        <v>41922</v>
+      </c>
+      <c r="L17" s="11">
+        <v>7</v>
+      </c>
+      <c r="M17" s="12">
+        <v>42426</v>
+      </c>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="8"/>
+      <c r="AI17" s="8"/>
+      <c r="AJ17" s="8"/>
+      <c r="AK17" s="8"/>
+      <c r="AL17" s="8"/>
+      <c r="AM17" s="8">
+        <v>4</v>
+      </c>
+      <c r="AN17" s="8">
+        <v>1</v>
+      </c>
+      <c r="AO17" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AP17" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AQ17" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AR17" s="8" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>15</v>
+      </c>
+      <c r="B18" s="8">
+        <v>2</v>
+      </c>
+      <c r="C18" s="8">
+        <v>50</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>947</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>947</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="H18" s="8">
+        <v>50</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8">
+        <v>50</v>
+      </c>
+      <c r="K18" s="10">
+        <v>42826</v>
+      </c>
+      <c r="L18" s="11">
+        <v>8</v>
+      </c>
+      <c r="M18" s="12">
+        <v>43410</v>
+      </c>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="8"/>
+      <c r="AI18" s="8"/>
+      <c r="AJ18" s="8"/>
+      <c r="AK18" s="8"/>
+      <c r="AL18" s="8"/>
+      <c r="AM18" s="8">
+        <v>4</v>
+      </c>
+      <c r="AN18" s="8">
+        <v>1</v>
+      </c>
+      <c r="AO18" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AP18" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AQ18" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AR18" s="8" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>36</v>
+      </c>
+      <c r="B19" s="8">
+        <v>2</v>
+      </c>
+      <c r="C19" s="8">
+        <v>33</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>990</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>990</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="H19" s="8">
+        <v>33</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="J19" s="8">
+        <v>27</v>
+      </c>
+      <c r="K19" s="10">
+        <v>43122</v>
+      </c>
+      <c r="L19" s="11">
+        <v>9</v>
+      </c>
+      <c r="M19" s="12">
+        <v>43799</v>
+      </c>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="8"/>
+      <c r="AJ19" s="8"/>
+      <c r="AK19" s="8"/>
+      <c r="AL19" s="8"/>
+      <c r="AM19" s="8">
+        <v>14</v>
+      </c>
+      <c r="AN19" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AP19" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AQ19" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AR19" s="8" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>27</v>
+      </c>
+      <c r="B20" s="8">
+        <v>2</v>
+      </c>
+      <c r="C20" s="8">
+        <v>50</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>959</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>959</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="H20" s="8">
+        <v>50</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8">
+        <v>50</v>
+      </c>
+      <c r="K20" s="10">
+        <v>42736</v>
+      </c>
+      <c r="L20" s="11">
+        <v>10</v>
+      </c>
+      <c r="M20" s="12">
+        <v>43829</v>
+      </c>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="8"/>
+      <c r="AJ20" s="8"/>
+      <c r="AK20" s="8"/>
+      <c r="AL20" s="8"/>
+      <c r="AM20" s="8">
+        <v>4</v>
+      </c>
+      <c r="AN20" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AP20" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AQ20" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AR20" s="8" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:44" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>12</v>
+      </c>
+      <c r="B21" s="8">
+        <v>2</v>
+      </c>
+      <c r="C21" s="8">
+        <v>3</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>925</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>925</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="H21" s="8">
+        <v>3</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8">
+        <v>3</v>
+      </c>
+      <c r="K21" s="10">
+        <v>42494</v>
+      </c>
+      <c r="L21" s="11">
+        <v>1</v>
+      </c>
+      <c r="M21" s="12">
+        <v>42789</v>
+      </c>
+      <c r="N21" s="8">
+        <v>80</v>
+      </c>
+      <c r="O21" s="8">
+        <v>2</v>
+      </c>
+      <c r="P21" s="8">
+        <v>80</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>2</v>
+      </c>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8">
+        <v>77</v>
+      </c>
+      <c r="U21" s="8">
+        <v>2</v>
+      </c>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8">
+        <v>3</v>
+      </c>
+      <c r="AA21" s="8">
+        <v>2</v>
+      </c>
+      <c r="AB21" s="8">
+        <v>80</v>
+      </c>
+      <c r="AC21" s="8">
+        <v>2</v>
+      </c>
+      <c r="AD21" s="8">
+        <v>77</v>
+      </c>
+      <c r="AE21" s="8">
+        <v>2</v>
+      </c>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8">
+        <v>3</v>
+      </c>
+      <c r="AK21" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL21" s="8"/>
+      <c r="AM21" s="8">
+        <v>4</v>
+      </c>
+      <c r="AN21" s="8">
+        <v>1</v>
+      </c>
+      <c r="AO21" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AP21" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AQ21" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AR21" s="8" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>26</v>
+      </c>
+      <c r="B22" s="8">
+        <v>1</v>
+      </c>
+      <c r="C22" s="8">
+        <v>5</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>958</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>958</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="H22" s="8">
+        <v>5</v>
+      </c>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8">
+        <v>5</v>
+      </c>
+      <c r="K22" s="10">
+        <v>43466</v>
+      </c>
+      <c r="L22" s="11">
+        <v>1</v>
+      </c>
+      <c r="M22" s="12">
+        <v>44195</v>
+      </c>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="8"/>
+      <c r="AJ22" s="8"/>
+      <c r="AK22" s="8"/>
+      <c r="AL22" s="8"/>
+      <c r="AM22" s="8">
+        <v>4</v>
+      </c>
+      <c r="AN22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO22" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AP22" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AQ22" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AR22" s="8" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>2</v>
+      </c>
+      <c r="B23" s="8">
+        <v>1</v>
+      </c>
+      <c r="C23" s="8">
+        <v>65</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="H23" s="8">
+        <v>65</v>
+      </c>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8">
+        <v>65</v>
+      </c>
+      <c r="K23" s="10">
+        <v>41866</v>
+      </c>
+      <c r="L23" s="11">
+        <v>11</v>
+      </c>
+      <c r="M23" s="12">
+        <v>42299</v>
+      </c>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="8"/>
+      <c r="AJ23" s="8"/>
+      <c r="AK23" s="8"/>
+      <c r="AL23" s="8"/>
+      <c r="AM23" s="8">
+        <v>4</v>
+      </c>
+      <c r="AN23" s="8">
+        <v>1</v>
+      </c>
+      <c r="AO23" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AP23" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AQ23" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AR23" s="8" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>29</v>
+      </c>
+      <c r="B24" s="8">
+        <v>2</v>
+      </c>
+      <c r="C24" s="8">
+        <v>67</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>962</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>962</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="H24" s="8">
+        <v>67</v>
+      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="10">
+        <v>43101</v>
+      </c>
+      <c r="L24" s="11">
+        <v>12</v>
+      </c>
+      <c r="M24" s="12">
+        <v>43738</v>
+      </c>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="8"/>
+      <c r="AK24" s="8"/>
+      <c r="AL24" s="8"/>
+      <c r="AM24" s="8">
+        <v>4</v>
+      </c>
+      <c r="AN24" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO24" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AP24" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AQ24" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AR24" s="8" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>1</v>
+      </c>
+      <c r="B25" s="8">
+        <v>2</v>
+      </c>
+      <c r="C25" s="8">
+        <v>64</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="H25" s="8">
+        <v>64</v>
+      </c>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8">
+        <v>64</v>
+      </c>
+      <c r="K25" s="10">
+        <v>42005</v>
+      </c>
+      <c r="L25" s="11">
+        <v>13</v>
+      </c>
+      <c r="M25" s="12">
+        <v>42908</v>
+      </c>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8"/>
+      <c r="AJ25" s="8"/>
+      <c r="AK25" s="8"/>
+      <c r="AL25" s="8"/>
+      <c r="AM25" s="8">
+        <v>4</v>
+      </c>
+      <c r="AN25" s="8">
+        <v>1</v>
+      </c>
+      <c r="AO25" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AP25" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AQ25" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AR25" s="8" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>35</v>
+      </c>
+      <c r="B26" s="8">
+        <v>2</v>
+      </c>
+      <c r="C26" s="8">
+        <v>33</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>989</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>989</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="H26" s="8">
+        <v>33</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="J26" s="8">
+        <v>27</v>
+      </c>
+      <c r="K26" s="10">
+        <v>43122</v>
+      </c>
+      <c r="L26" s="11">
+        <v>14</v>
+      </c>
+      <c r="M26" s="12">
+        <v>43738</v>
+      </c>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8"/>
+      <c r="AJ26" s="8"/>
+      <c r="AK26" s="8"/>
+      <c r="AL26" s="8"/>
+      <c r="AM26" s="8">
+        <v>14</v>
+      </c>
+      <c r="AN26" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO26" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AP26" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AQ26" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AR26" s="8" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <v>33</v>
+      </c>
+      <c r="B27" s="8">
+        <v>2</v>
+      </c>
+      <c r="C27" s="8">
+        <v>33</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>987</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>987</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="H27" s="8">
+        <v>33</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="J27" s="8">
+        <v>27</v>
+      </c>
+      <c r="K27" s="10">
+        <v>43122</v>
+      </c>
+      <c r="L27" s="11">
+        <v>15</v>
+      </c>
+      <c r="M27" s="12">
+        <v>43738</v>
+      </c>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="8"/>
+      <c r="AE27" s="8"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="8"/>
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="8"/>
+      <c r="AJ27" s="8"/>
+      <c r="AK27" s="8"/>
+      <c r="AL27" s="8"/>
+      <c r="AM27" s="8">
+        <v>14</v>
+      </c>
+      <c r="AN27" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO27" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AP27" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AQ27" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AR27" s="8" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>34</v>
+      </c>
+      <c r="B28" s="8">
+        <v>2</v>
+      </c>
+      <c r="C28" s="8">
+        <v>33</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>988</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>988</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="H28" s="8">
+        <v>33</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="J28" s="8">
+        <v>27</v>
+      </c>
+      <c r="K28" s="10">
+        <v>43122</v>
+      </c>
+      <c r="L28" s="11">
+        <v>16</v>
+      </c>
+      <c r="M28" s="12">
+        <v>43738</v>
+      </c>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="8"/>
+      <c r="AD28" s="8"/>
+      <c r="AE28" s="8"/>
+      <c r="AF28" s="8"/>
+      <c r="AG28" s="8"/>
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="8"/>
+      <c r="AJ28" s="8"/>
+      <c r="AK28" s="8"/>
+      <c r="AL28" s="8"/>
+      <c r="AM28" s="8">
+        <v>14</v>
+      </c>
+      <c r="AN28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO28" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AP28" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AQ28" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AR28" s="8" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>5</v>
+      </c>
+      <c r="B29" s="8">
+        <v>2</v>
+      </c>
+      <c r="C29" s="8">
+        <v>6</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="H29" s="8">
+        <v>3</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>939</v>
+      </c>
+      <c r="J29" s="8">
+        <v>3</v>
+      </c>
+      <c r="K29" s="10">
+        <v>42156</v>
+      </c>
+      <c r="L29" s="11">
+        <v>17</v>
+      </c>
+      <c r="M29" s="12">
+        <v>42602</v>
+      </c>
+      <c r="N29" s="8">
+        <v>40</v>
+      </c>
+      <c r="O29" s="8">
+        <v>2</v>
+      </c>
+      <c r="P29" s="8">
+        <v>35</v>
+      </c>
+      <c r="Q29" s="8">
+        <v>2</v>
+      </c>
+      <c r="R29" s="8">
+        <v>35</v>
+      </c>
+      <c r="S29" s="8">
+        <v>2</v>
+      </c>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="8">
+        <v>35</v>
+      </c>
+      <c r="AC29" s="8">
+        <v>2</v>
+      </c>
+      <c r="AD29" s="8"/>
+      <c r="AE29" s="8"/>
+      <c r="AF29" s="8"/>
+      <c r="AG29" s="8"/>
+      <c r="AH29" s="8"/>
+      <c r="AI29" s="8"/>
+      <c r="AJ29" s="8"/>
+      <c r="AK29" s="8"/>
+      <c r="AL29" s="8"/>
+      <c r="AM29" s="8">
+        <v>4</v>
+      </c>
+      <c r="AN29" s="8">
+        <v>1</v>
+      </c>
+      <c r="AO29" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AP29" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AQ29" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AR29" s="8" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>14</v>
+      </c>
+      <c r="B30" s="8">
+        <v>2</v>
+      </c>
+      <c r="C30" s="8">
+        <v>6</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>820</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>820</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="H30" s="8">
+        <v>3</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="J30" s="8">
+        <v>3</v>
+      </c>
+      <c r="K30" s="10">
+        <v>42736</v>
+      </c>
+      <c r="L30" s="11">
+        <v>17</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>946</v>
+      </c>
+      <c r="N30" s="8">
+        <v>970</v>
+      </c>
+      <c r="O30" s="8">
+        <v>2</v>
+      </c>
+      <c r="P30" s="8">
+        <v>972</v>
+      </c>
+      <c r="Q30" s="8">
+        <v>2</v>
+      </c>
+      <c r="R30" s="8">
+        <v>22.4</v>
+      </c>
+      <c r="S30" s="8">
+        <v>2</v>
+      </c>
+      <c r="T30" s="8">
+        <v>655</v>
+      </c>
+      <c r="U30" s="8">
+        <v>2</v>
+      </c>
+      <c r="V30" s="8">
+        <v>190</v>
+      </c>
+      <c r="W30" s="8">
+        <v>2</v>
+      </c>
+      <c r="X30" s="8">
+        <v>84.5</v>
+      </c>
+      <c r="Y30" s="8">
+        <v>2</v>
+      </c>
+      <c r="Z30" s="8">
+        <v>20</v>
+      </c>
+      <c r="AA30" s="8">
+        <v>2</v>
+      </c>
+      <c r="AB30" s="8">
+        <v>22.4</v>
+      </c>
+      <c r="AC30" s="8">
+        <v>2</v>
+      </c>
+      <c r="AD30" s="8">
+        <v>655</v>
+      </c>
+      <c r="AE30" s="8">
+        <v>2</v>
+      </c>
+      <c r="AF30" s="8">
+        <v>190</v>
+      </c>
+      <c r="AG30" s="8">
+        <v>2</v>
+      </c>
+      <c r="AH30" s="8">
+        <v>84.5</v>
+      </c>
+      <c r="AI30" s="8">
+        <v>2</v>
+      </c>
+      <c r="AJ30" s="8">
+        <v>20</v>
+      </c>
+      <c r="AK30" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL30" s="8"/>
+      <c r="AM30" s="8">
+        <v>4</v>
+      </c>
+      <c r="AN30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO30" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AP30" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AQ30" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AR30" s="8" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:44" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>4</v>
+      </c>
+      <c r="B31" s="8">
+        <v>2</v>
+      </c>
+      <c r="C31" s="8">
+        <v>4</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>851</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>851</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="H31" s="8">
+        <v>4</v>
+      </c>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8">
+        <v>4</v>
+      </c>
+      <c r="K31" s="10">
+        <v>41640</v>
+      </c>
+      <c r="L31" s="11">
+        <v>18</v>
+      </c>
+      <c r="M31" s="12">
+        <v>42165</v>
+      </c>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="8"/>
+      <c r="AD31" s="8"/>
+      <c r="AE31" s="8"/>
+      <c r="AF31" s="8"/>
+      <c r="AG31" s="8"/>
+      <c r="AH31" s="8"/>
+      <c r="AI31" s="8"/>
+      <c r="AJ31" s="8"/>
+      <c r="AK31" s="8"/>
+      <c r="AL31" s="8"/>
+      <c r="AM31" s="8">
+        <v>4</v>
+      </c>
+      <c r="AN31" s="8">
+        <v>1</v>
+      </c>
+      <c r="AO31" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AP31" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AQ31" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AR31" s="8" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:44" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>3</v>
+      </c>
+      <c r="B32" s="8">
+        <v>2</v>
+      </c>
+      <c r="C32" s="8">
+        <v>4</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="H32" s="8">
+        <v>4</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>936</v>
+      </c>
+      <c r="J32" s="8">
+        <v>4</v>
+      </c>
+      <c r="K32" s="10">
+        <v>41821</v>
+      </c>
+      <c r="L32" s="11">
+        <v>19</v>
+      </c>
+      <c r="M32" s="12">
+        <v>42491</v>
+      </c>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="8"/>
+      <c r="AD32" s="8"/>
+      <c r="AE32" s="8"/>
+      <c r="AF32" s="8"/>
+      <c r="AG32" s="8"/>
+      <c r="AH32" s="8"/>
+      <c r="AI32" s="8"/>
+      <c r="AJ32" s="8"/>
+      <c r="AK32" s="8"/>
+      <c r="AL32" s="8"/>
+      <c r="AM32" s="8">
+        <v>4</v>
+      </c>
+      <c r="AN32" s="8">
+        <v>1</v>
+      </c>
+      <c r="AO32" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AP32" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AQ32" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AR32" s="8" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:44" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>9</v>
+      </c>
+      <c r="B33" s="8">
+        <v>2</v>
+      </c>
+      <c r="C33" s="8">
+        <v>4</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="H33" s="8">
+        <v>4</v>
+      </c>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8">
+        <v>4</v>
+      </c>
+      <c r="K33" s="10">
+        <v>42370</v>
+      </c>
+      <c r="L33" s="11">
+        <v>19</v>
+      </c>
+      <c r="M33" s="12">
+        <v>42829</v>
+      </c>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="8"/>
+      <c r="AD33" s="8"/>
+      <c r="AE33" s="8"/>
+      <c r="AF33" s="8"/>
+      <c r="AG33" s="8"/>
+      <c r="AH33" s="8"/>
+      <c r="AI33" s="8"/>
+      <c r="AJ33" s="8"/>
+      <c r="AK33" s="8"/>
+      <c r="AL33" s="8"/>
+      <c r="AM33" s="8">
+        <v>4</v>
+      </c>
+      <c r="AN33" s="8">
+        <v>1</v>
+      </c>
+      <c r="AO33" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AP33" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AQ33" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AR33" s="8" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>10</v>
+      </c>
+      <c r="B34" s="8">
+        <v>2</v>
+      </c>
+      <c r="C34" s="8">
+        <v>5</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="H34" s="8">
+        <v>5</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>943</v>
+      </c>
+      <c r="J34" s="8">
+        <v>5</v>
+      </c>
+      <c r="K34" s="10">
+        <v>41821</v>
+      </c>
+      <c r="L34" s="11">
+        <v>19</v>
+      </c>
+      <c r="M34" s="12">
+        <v>42491</v>
+      </c>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="8"/>
+      <c r="AC34" s="8"/>
+      <c r="AD34" s="8"/>
+      <c r="AE34" s="8"/>
+      <c r="AF34" s="8"/>
+      <c r="AG34" s="8"/>
+      <c r="AH34" s="8"/>
+      <c r="AI34" s="8"/>
+      <c r="AJ34" s="8"/>
+      <c r="AK34" s="8"/>
+      <c r="AL34" s="8"/>
+      <c r="AM34" s="8">
+        <v>4</v>
+      </c>
+      <c r="AN34" s="8">
+        <v>1</v>
+      </c>
+      <c r="AO34" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AP34" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AQ34" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AR34" s="8" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <v>16</v>
+      </c>
+      <c r="B35" s="8">
+        <v>2</v>
+      </c>
+      <c r="C35" s="8">
+        <v>49</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>949</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>949</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="H35" s="8">
+        <v>49</v>
+      </c>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8">
+        <v>49</v>
+      </c>
+      <c r="K35" s="10">
+        <v>43101</v>
+      </c>
+      <c r="L35" s="11">
+        <v>20</v>
+      </c>
+      <c r="M35" s="12">
+        <v>43464</v>
+      </c>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="8"/>
+      <c r="AC35" s="8"/>
+      <c r="AD35" s="8"/>
+      <c r="AE35" s="8"/>
+      <c r="AF35" s="8"/>
+      <c r="AG35" s="8"/>
+      <c r="AH35" s="8"/>
+      <c r="AI35" s="8"/>
+      <c r="AJ35" s="8"/>
+      <c r="AK35" s="8"/>
+      <c r="AL35" s="8"/>
+      <c r="AM35" s="8">
+        <v>4</v>
+      </c>
+      <c r="AN35" s="8">
+        <v>1</v>
+      </c>
+      <c r="AO35" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AP35" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AQ35" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AR35" s="8" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <v>31</v>
+      </c>
+      <c r="B36" s="8">
+        <v>2</v>
+      </c>
+      <c r="C36" s="8">
+        <v>33</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>985</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>985</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>965</v>
+      </c>
+      <c r="H36" s="8">
+        <v>33</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>966</v>
+      </c>
+      <c r="J36" s="8">
+        <v>27</v>
+      </c>
+      <c r="K36" s="10">
+        <v>43122</v>
+      </c>
+      <c r="L36" s="11">
+        <v>21</v>
+      </c>
+      <c r="M36" s="12">
+        <v>43738</v>
+      </c>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="8"/>
+      <c r="AC36" s="8"/>
+      <c r="AD36" s="8"/>
+      <c r="AE36" s="8"/>
+      <c r="AF36" s="8"/>
+      <c r="AG36" s="8"/>
+      <c r="AH36" s="8"/>
+      <c r="AI36" s="8"/>
+      <c r="AJ36" s="8"/>
+      <c r="AK36" s="8"/>
+      <c r="AL36" s="8"/>
+      <c r="AM36" s="8">
+        <v>14</v>
+      </c>
+      <c r="AN36" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO36" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AP36" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AQ36" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AR36" s="8" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>8</v>
+      </c>
+      <c r="B37" s="8">
+        <v>2</v>
+      </c>
+      <c r="C37" s="8">
+        <v>6</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="H37" s="8">
+        <v>6</v>
+      </c>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8">
+        <v>6</v>
+      </c>
+      <c r="K37" s="10">
+        <v>42292</v>
+      </c>
+      <c r="L37" s="11">
+        <v>22</v>
+      </c>
+      <c r="M37" s="12">
+        <v>43075</v>
+      </c>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="8"/>
+      <c r="AC37" s="8"/>
+      <c r="AD37" s="8"/>
+      <c r="AE37" s="8"/>
+      <c r="AF37" s="8"/>
+      <c r="AG37" s="8"/>
+      <c r="AH37" s="8"/>
+      <c r="AI37" s="8"/>
+      <c r="AJ37" s="8"/>
+      <c r="AK37" s="8"/>
+      <c r="AL37" s="8"/>
+      <c r="AM37" s="8">
+        <v>4</v>
+      </c>
+      <c r="AN37" s="8">
+        <v>1</v>
+      </c>
+      <c r="AO37" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AP37" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AQ37" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AR37" s="8" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <v>23</v>
+      </c>
+      <c r="B38" s="8">
+        <v>2</v>
+      </c>
+      <c r="C38" s="8">
+        <v>6</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>955</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>955</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="H38" s="8">
+        <v>3</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>956</v>
+      </c>
+      <c r="J38" s="8">
+        <v>3</v>
+      </c>
+      <c r="K38" s="10">
+        <v>43313</v>
+      </c>
+      <c r="L38" s="11"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="8">
+        <v>1000</v>
+      </c>
+      <c r="O38" s="8">
+        <v>2</v>
+      </c>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="8"/>
+      <c r="AD38" s="8"/>
+      <c r="AE38" s="8"/>
+      <c r="AF38" s="8"/>
+      <c r="AG38" s="8"/>
+      <c r="AH38" s="8"/>
+      <c r="AI38" s="8"/>
+      <c r="AJ38" s="8"/>
+      <c r="AK38" s="8"/>
+      <c r="AL38" s="8"/>
+      <c r="AM38" s="8">
+        <v>4</v>
+      </c>
+      <c r="AN38" s="8">
+        <v>2</v>
+      </c>
+      <c r="AO38" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AP38" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AQ38" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AR38" s="8" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
+        <v>28</v>
+      </c>
+      <c r="B39" s="8">
+        <v>2</v>
+      </c>
+      <c r="C39" s="8">
+        <v>64</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>961</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>961</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="H39" s="8">
+        <v>64</v>
+      </c>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8">
+        <v>64</v>
+      </c>
+      <c r="K39" s="10">
+        <v>42736</v>
+      </c>
+      <c r="L39" s="11"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="8"/>
+      <c r="AA39" s="8"/>
+      <c r="AB39" s="8"/>
+      <c r="AC39" s="8"/>
+      <c r="AD39" s="8"/>
+      <c r="AE39" s="8"/>
+      <c r="AF39" s="8"/>
+      <c r="AG39" s="8"/>
+      <c r="AH39" s="8"/>
+      <c r="AI39" s="8"/>
+      <c r="AJ39" s="8"/>
+      <c r="AK39" s="8"/>
+      <c r="AL39" s="8"/>
+      <c r="AM39" s="8">
+        <v>4</v>
+      </c>
+      <c r="AN39" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO39" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AP39" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AQ39" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AR39" s="8" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <v>30</v>
+      </c>
+      <c r="B40" s="8">
+        <v>1</v>
+      </c>
+      <c r="C40" s="8">
+        <v>2</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>964</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>964</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="H40" s="8">
+        <v>2</v>
+      </c>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8">
+        <v>2</v>
+      </c>
+      <c r="K40" s="10">
+        <v>43525</v>
+      </c>
+      <c r="L40" s="11"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="8"/>
+      <c r="AA40" s="8"/>
+      <c r="AB40" s="8"/>
+      <c r="AC40" s="8"/>
+      <c r="AD40" s="8"/>
+      <c r="AE40" s="8"/>
+      <c r="AF40" s="8"/>
+      <c r="AG40" s="8"/>
+      <c r="AH40" s="8"/>
+      <c r="AI40" s="8"/>
+      <c r="AJ40" s="8"/>
+      <c r="AK40" s="8"/>
+      <c r="AL40" s="8"/>
+      <c r="AM40" s="8">
+        <v>4</v>
+      </c>
+      <c r="AN40" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO40" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AP40" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AQ40" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AR40" s="8" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:44" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
+        <v>37</v>
+      </c>
+      <c r="B41" s="8">
+        <v>2</v>
+      </c>
+      <c r="C41" s="8">
+        <v>53</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>967</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>967</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>968</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>968</v>
+      </c>
+      <c r="H41" s="8">
+        <v>53</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>969</v>
+      </c>
+      <c r="J41" s="8">
+        <v>3</v>
+      </c>
+      <c r="K41" s="10">
+        <v>43466</v>
+      </c>
+      <c r="L41" s="11"/>
+      <c r="M41" s="12">
+        <v>43920</v>
+      </c>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="8"/>
+      <c r="AB41" s="8"/>
+      <c r="AC41" s="8"/>
+      <c r="AD41" s="8"/>
+      <c r="AE41" s="8"/>
+      <c r="AF41" s="8"/>
+      <c r="AG41" s="8"/>
+      <c r="AH41" s="8"/>
+      <c r="AI41" s="8"/>
+      <c r="AJ41" s="8"/>
+      <c r="AK41" s="8"/>
+      <c r="AL41" s="8"/>
+      <c r="AM41" s="8">
+        <v>14</v>
+      </c>
+      <c r="AN41" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO41" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AP41" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AQ41" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AR41" s="8" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:44" ht="90" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
+        <v>38</v>
+      </c>
+      <c r="B42" s="8">
+        <v>2</v>
+      </c>
+      <c r="C42" s="8">
+        <v>55</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>970</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>970</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H42" s="8">
+        <v>55</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>971</v>
+      </c>
+      <c r="J42" s="8">
+        <v>52</v>
+      </c>
+      <c r="K42" s="10">
+        <v>43559</v>
+      </c>
+      <c r="L42" s="11"/>
+      <c r="M42" s="12">
+        <v>43728</v>
+      </c>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="8"/>
+      <c r="AB42" s="8"/>
+      <c r="AC42" s="8"/>
+      <c r="AD42" s="8"/>
+      <c r="AE42" s="8"/>
+      <c r="AF42" s="8"/>
+      <c r="AG42" s="8"/>
+      <c r="AH42" s="8"/>
+      <c r="AI42" s="8"/>
+      <c r="AJ42" s="8"/>
+      <c r="AK42" s="8"/>
+      <c r="AL42" s="8"/>
+      <c r="AM42" s="8">
+        <v>14</v>
+      </c>
+      <c r="AN42" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO42" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AP42" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AQ42" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AR42" s="8" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:44" ht="90" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
+        <v>39</v>
+      </c>
+      <c r="B43" s="8">
+        <v>2</v>
+      </c>
+      <c r="C43" s="8">
+        <v>3</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>972</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>972</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H43" s="8">
+        <v>58</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>973</v>
+      </c>
+      <c r="J43" s="8">
+        <v>3</v>
+      </c>
+      <c r="K43" s="10">
+        <v>43556</v>
+      </c>
+      <c r="L43" s="11"/>
+      <c r="M43" s="12">
+        <v>43799</v>
+      </c>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="8"/>
+      <c r="Z43" s="8"/>
+      <c r="AA43" s="8"/>
+      <c r="AB43" s="8"/>
+      <c r="AC43" s="8"/>
+      <c r="AD43" s="8"/>
+      <c r="AE43" s="8"/>
+      <c r="AF43" s="8"/>
+      <c r="AG43" s="8"/>
+      <c r="AH43" s="8"/>
+      <c r="AI43" s="8"/>
+      <c r="AJ43" s="8"/>
+      <c r="AK43" s="8"/>
+      <c r="AL43" s="8"/>
+      <c r="AM43" s="8">
+        <v>14</v>
+      </c>
+      <c r="AN43" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO43" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AP43" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AQ43" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AR43" s="8" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:44" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
+        <v>40</v>
+      </c>
+      <c r="B44" s="8">
+        <v>2</v>
+      </c>
+      <c r="C44" s="8">
+        <v>3</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>974</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>974</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>975</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>975</v>
+      </c>
+      <c r="H44" s="8">
+        <v>58</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>976</v>
+      </c>
+      <c r="J44" s="8">
+        <v>3</v>
+      </c>
+      <c r="K44" s="10">
+        <v>43556</v>
+      </c>
+      <c r="L44" s="11"/>
+      <c r="M44" s="12">
+        <v>43799</v>
+      </c>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="8"/>
+      <c r="Z44" s="8"/>
+      <c r="AA44" s="8"/>
+      <c r="AB44" s="8"/>
+      <c r="AC44" s="8"/>
+      <c r="AD44" s="8"/>
+      <c r="AE44" s="8"/>
+      <c r="AF44" s="8"/>
+      <c r="AG44" s="8"/>
+      <c r="AH44" s="8"/>
+      <c r="AI44" s="8"/>
+      <c r="AJ44" s="8"/>
+      <c r="AK44" s="8"/>
+      <c r="AL44" s="8"/>
+      <c r="AM44" s="8">
+        <v>14</v>
+      </c>
+      <c r="AN44" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO44" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AP44" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AQ44" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AR44" s="8" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
+        <v>43</v>
+      </c>
+      <c r="B45" s="8">
+        <v>1</v>
+      </c>
+      <c r="C45" s="8">
+        <v>8</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>977</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>977</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="H45" s="8">
+        <v>8</v>
+      </c>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="8"/>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="8"/>
+      <c r="AB45" s="8"/>
+      <c r="AC45" s="8"/>
+      <c r="AD45" s="8"/>
+      <c r="AE45" s="8"/>
+      <c r="AF45" s="8"/>
+      <c r="AG45" s="8"/>
+      <c r="AH45" s="8"/>
+      <c r="AI45" s="8"/>
+      <c r="AJ45" s="8"/>
+      <c r="AK45" s="8"/>
+      <c r="AL45" s="8"/>
+      <c r="AM45" s="8">
+        <v>3</v>
+      </c>
+      <c r="AN45" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO45" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AP45" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AQ45" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AR45" s="8" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
+        <v>44</v>
+      </c>
+      <c r="B46" s="8">
+        <v>1</v>
+      </c>
+      <c r="C46" s="8">
+        <v>8</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>980</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>980</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>983</v>
+      </c>
+      <c r="H46" s="8">
+        <v>8</v>
+      </c>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="8"/>
+      <c r="X46" s="8"/>
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="8"/>
+      <c r="AB46" s="8"/>
+      <c r="AC46" s="8"/>
+      <c r="AD46" s="8"/>
+      <c r="AE46" s="8"/>
+      <c r="AF46" s="8"/>
+      <c r="AG46" s="8"/>
+      <c r="AH46" s="8"/>
+      <c r="AI46" s="8"/>
+      <c r="AJ46" s="8"/>
+      <c r="AK46" s="8"/>
+      <c r="AL46" s="8"/>
+      <c r="AM46" s="8">
+        <v>3</v>
+      </c>
+      <c r="AN46" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO46" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AP46" s="8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AQ46" s="10">
+        <v>43677</v>
+      </c>
+      <c r="AR46" s="8" t="s">
+        <v>1004</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A2:AN46" xr:uid="{70C48B16-26EA-4325-A37B-D7EF1F821CA6}"/>
   <mergeCells count="2">
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="P1:Z1"/>
+    <mergeCell ref="AB1:AJ1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3336,10 +7311,2394 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39357979-4988-4A16-97F5-5C4873354967}">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="31" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>944</v>
+      </c>
+      <c r="C2" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>981</v>
+      </c>
+      <c r="C4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>992</v>
+      </c>
+      <c r="C5" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>957</v>
+      </c>
+      <c r="C6" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>952</v>
+      </c>
+      <c r="C7" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>941</v>
+      </c>
+      <c r="C8" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>948</v>
+      </c>
+      <c r="C9" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>996</v>
+      </c>
+      <c r="C10" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>960</v>
+      </c>
+      <c r="C11" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>935</v>
+      </c>
+      <c r="C12" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>963</v>
+      </c>
+      <c r="C13" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>934</v>
+      </c>
+      <c r="C14" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>995</v>
+      </c>
+      <c r="C15" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>993</v>
+      </c>
+      <c r="C16" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>994</v>
+      </c>
+      <c r="C17" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>940</v>
+      </c>
+      <c r="C18" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>938</v>
+      </c>
+      <c r="C19" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>937</v>
+      </c>
+      <c r="C20" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>950</v>
+      </c>
+      <c r="C21" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>991</v>
+      </c>
+      <c r="C22" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>942</v>
+      </c>
+      <c r="C23" t="s">
+        <v>942</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:B23" xr:uid="{90724191-8BA1-4288-BCC4-3F3DD231C3BE}">
+    <sortState ref="A2:B23">
+      <sortCondition ref="B1:B23"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I72"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="99.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>704</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>702</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>709</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>20</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>42</v>
+      </c>
+      <c r="I19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" t="s">
+        <v>106</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" t="s">
+        <v>114</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27" t="s">
+        <v>118</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" t="s">
+        <v>120</v>
+      </c>
+      <c r="E28" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28" t="s">
+        <v>122</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" t="s">
+        <v>124</v>
+      </c>
+      <c r="E29" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29" t="s">
+        <v>126</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" t="s">
+        <v>129</v>
+      </c>
+      <c r="F30" t="s">
+        <v>130</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>131</v>
+      </c>
+      <c r="D31" t="s">
+        <v>132</v>
+      </c>
+      <c r="E31" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31" t="s">
+        <v>133</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32" t="s">
+        <v>135</v>
+      </c>
+      <c r="E32" t="s">
+        <v>136</v>
+      </c>
+      <c r="F32" t="s">
+        <v>137</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33" t="s">
+        <v>139</v>
+      </c>
+      <c r="E33" t="s">
+        <v>140</v>
+      </c>
+      <c r="F33" t="s">
+        <v>141</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" t="s">
+        <v>143</v>
+      </c>
+      <c r="E34" t="s">
+        <v>144</v>
+      </c>
+      <c r="F34" t="s">
+        <v>145</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" t="s">
+        <v>147</v>
+      </c>
+      <c r="E35" t="s">
+        <v>148</v>
+      </c>
+      <c r="F35" t="s">
+        <v>149</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <v>81</v>
+      </c>
+      <c r="I35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>150</v>
+      </c>
+      <c r="D36" t="s">
+        <v>151</v>
+      </c>
+      <c r="E36" t="s">
+        <v>152</v>
+      </c>
+      <c r="F36" t="s">
+        <v>153</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>82</v>
+      </c>
+      <c r="I36">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>154</v>
+      </c>
+      <c r="D37" t="s">
+        <v>155</v>
+      </c>
+      <c r="E37" t="s">
+        <v>156</v>
+      </c>
+      <c r="F37" t="s">
+        <v>157</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <v>83</v>
+      </c>
+      <c r="I37">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>39</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>158</v>
+      </c>
+      <c r="D38" t="s">
+        <v>159</v>
+      </c>
+      <c r="E38" t="s">
+        <v>158</v>
+      </c>
+      <c r="F38" t="s">
+        <v>159</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>71</v>
+      </c>
+      <c r="I38">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>40</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>160</v>
+      </c>
+      <c r="D39" t="s">
+        <v>161</v>
+      </c>
+      <c r="E39" t="s">
+        <v>162</v>
+      </c>
+      <c r="F39" t="s">
+        <v>163</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>41</v>
+      </c>
+      <c r="B40">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>164</v>
+      </c>
+      <c r="D40" t="s">
+        <v>165</v>
+      </c>
+      <c r="E40" t="s">
+        <v>166</v>
+      </c>
+      <c r="F40" t="s">
+        <v>167</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>168</v>
+      </c>
+      <c r="D41" t="s">
+        <v>169</v>
+      </c>
+      <c r="E41" t="s">
+        <v>170</v>
+      </c>
+      <c r="F41" t="s">
+        <v>171</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <v>31</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>43</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>172</v>
+      </c>
+      <c r="D42" t="s">
+        <v>173</v>
+      </c>
+      <c r="E42" t="s">
+        <v>172</v>
+      </c>
+      <c r="F42" t="s">
+        <v>173</v>
+      </c>
+      <c r="G42">
+        <v>3</v>
+      </c>
+      <c r="H42">
+        <v>71</v>
+      </c>
+      <c r="I42">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>44</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>174</v>
+      </c>
+      <c r="D43" t="s">
+        <v>175</v>
+      </c>
+      <c r="E43" t="s">
+        <v>174</v>
+      </c>
+      <c r="F43" t="s">
+        <v>175</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
+      <c r="H43">
+        <v>72</v>
+      </c>
+      <c r="I43">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>45</v>
+      </c>
+      <c r="B44">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
+        <v>176</v>
+      </c>
+      <c r="D44" t="s">
+        <v>177</v>
+      </c>
+      <c r="E44" t="s">
+        <v>178</v>
+      </c>
+      <c r="F44" t="s">
+        <v>179</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44">
+        <v>38</v>
+      </c>
+      <c r="I44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>46</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>180</v>
+      </c>
+      <c r="D45" t="s">
+        <v>181</v>
+      </c>
+      <c r="E45" t="s">
+        <v>182</v>
+      </c>
+      <c r="F45" t="s">
+        <v>183</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <v>40</v>
+      </c>
+      <c r="I45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>47</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>184</v>
+      </c>
+      <c r="D46" t="s">
+        <v>185</v>
+      </c>
+      <c r="E46" t="s">
+        <v>186</v>
+      </c>
+      <c r="F46" t="s">
+        <v>187</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46">
+        <v>54</v>
+      </c>
+      <c r="I46">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>48</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>188</v>
+      </c>
+      <c r="D47" t="s">
+        <v>189</v>
+      </c>
+      <c r="E47" t="s">
+        <v>188</v>
+      </c>
+      <c r="F47" t="s">
+        <v>189</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47">
+        <v>131</v>
+      </c>
+      <c r="I47">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>49</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>190</v>
+      </c>
+      <c r="D48" t="s">
+        <v>191</v>
+      </c>
+      <c r="E48" t="s">
+        <v>192</v>
+      </c>
+      <c r="F48" t="s">
+        <v>193</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="H48">
+        <v>131</v>
+      </c>
+      <c r="I48">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>50</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>194</v>
+      </c>
+      <c r="D49" t="s">
+        <v>195</v>
+      </c>
+      <c r="E49" t="s">
+        <v>196</v>
+      </c>
+      <c r="F49" t="s">
+        <v>197</v>
+      </c>
+      <c r="G49">
+        <v>3</v>
+      </c>
+      <c r="H49">
+        <v>132</v>
+      </c>
+      <c r="I49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>51</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>198</v>
+      </c>
+      <c r="D50" t="s">
+        <v>199</v>
+      </c>
+      <c r="E50" t="s">
+        <v>200</v>
+      </c>
+      <c r="F50" t="s">
+        <v>201</v>
+      </c>
+      <c r="G50">
+        <v>3</v>
+      </c>
+      <c r="H50">
+        <v>133</v>
+      </c>
+      <c r="I50">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>52</v>
+      </c>
+      <c r="B51">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s">
+        <v>202</v>
+      </c>
+      <c r="D51" t="s">
+        <v>135</v>
+      </c>
+      <c r="E51" t="s">
+        <v>203</v>
+      </c>
+      <c r="F51" t="s">
+        <v>204</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>300</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>53</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>205</v>
+      </c>
+      <c r="D52" t="s">
+        <v>206</v>
+      </c>
+      <c r="E52" t="s">
+        <v>207</v>
+      </c>
+      <c r="F52" t="s">
+        <v>208</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+      <c r="H52">
+        <v>301</v>
+      </c>
+      <c r="I52">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>54</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>83</v>
+      </c>
+      <c r="D53" t="s">
+        <v>206</v>
+      </c>
+      <c r="E53" t="s">
+        <v>209</v>
+      </c>
+      <c r="F53" t="s">
+        <v>210</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <v>302</v>
+      </c>
+      <c r="I53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>55</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>211</v>
+      </c>
+      <c r="D54" t="s">
+        <v>212</v>
+      </c>
+      <c r="E54" t="s">
+        <v>213</v>
+      </c>
+      <c r="F54" t="s">
+        <v>214</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+      <c r="H54">
+        <v>304</v>
+      </c>
+      <c r="I54">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>56</v>
+      </c>
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55" t="s">
+        <v>215</v>
+      </c>
+      <c r="D55" t="s">
+        <v>216</v>
+      </c>
+      <c r="E55" t="s">
+        <v>217</v>
+      </c>
+      <c r="F55" t="s">
+        <v>218</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="H55">
+        <v>305</v>
+      </c>
+      <c r="I55">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>57</v>
+      </c>
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>219</v>
+      </c>
+      <c r="D56" t="s">
+        <v>220</v>
+      </c>
+      <c r="E56" t="s">
+        <v>221</v>
+      </c>
+      <c r="F56" t="s">
+        <v>222</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>307</v>
+      </c>
+      <c r="I56">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>58</v>
+      </c>
+      <c r="B57">
+        <v>9</v>
+      </c>
+      <c r="C57" t="s">
+        <v>223</v>
+      </c>
+      <c r="D57" t="s">
+        <v>224</v>
+      </c>
+      <c r="E57" t="s">
+        <v>225</v>
+      </c>
+      <c r="F57" t="s">
+        <v>226</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57" t="s">
+        <v>18</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>59</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>227</v>
+      </c>
+      <c r="D58" t="s">
+        <v>228</v>
+      </c>
+      <c r="E58" t="s">
+        <v>229</v>
+      </c>
+      <c r="F58" t="s">
+        <v>230</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="H58">
+        <v>171</v>
+      </c>
+      <c r="I58">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>60</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>231</v>
+      </c>
+      <c r="D59" t="s">
+        <v>232</v>
+      </c>
+      <c r="E59" t="s">
+        <v>233</v>
+      </c>
+      <c r="F59" t="s">
+        <v>234</v>
+      </c>
+      <c r="G59">
+        <v>2</v>
+      </c>
+      <c r="H59">
+        <v>172</v>
+      </c>
+      <c r="I59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>61</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>235</v>
+      </c>
+      <c r="D60" t="s">
+        <v>236</v>
+      </c>
+      <c r="E60" t="s">
+        <v>237</v>
+      </c>
+      <c r="F60" t="s">
+        <v>238</v>
+      </c>
+      <c r="G60">
+        <v>2</v>
+      </c>
+      <c r="H60">
+        <v>173</v>
+      </c>
+      <c r="I60">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>62</v>
+      </c>
+      <c r="B61">
+        <v>4</v>
+      </c>
+      <c r="C61" t="s">
+        <v>239</v>
+      </c>
+      <c r="D61" t="s">
+        <v>240</v>
+      </c>
+      <c r="E61" t="s">
+        <v>241</v>
+      </c>
+      <c r="F61" t="s">
+        <v>242</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
+      </c>
+      <c r="H61">
+        <v>162</v>
+      </c>
+      <c r="I61">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>63</v>
+      </c>
+      <c r="B62">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>243</v>
+      </c>
+      <c r="D62" t="s">
+        <v>244</v>
+      </c>
+      <c r="E62" t="s">
+        <v>245</v>
+      </c>
+      <c r="F62" t="s">
+        <v>246</v>
+      </c>
+      <c r="G62">
+        <v>2</v>
+      </c>
+      <c r="H62">
+        <v>163</v>
+      </c>
+      <c r="I62">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>64</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63" t="s">
+        <v>247</v>
+      </c>
+      <c r="D63" t="s">
+        <v>248</v>
+      </c>
+      <c r="E63" t="s">
+        <v>249</v>
+      </c>
+      <c r="F63" t="s">
+        <v>250</v>
+      </c>
+      <c r="G63">
+        <v>2</v>
+      </c>
+      <c r="H63">
+        <v>148</v>
+      </c>
+      <c r="I63">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>65</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>251</v>
+      </c>
+      <c r="D64" t="s">
+        <v>252</v>
+      </c>
+      <c r="E64" t="s">
+        <v>253</v>
+      </c>
+      <c r="F64" t="s">
+        <v>254</v>
+      </c>
+      <c r="G64">
+        <v>2</v>
+      </c>
+      <c r="H64">
+        <v>141</v>
+      </c>
+      <c r="I64">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>66</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65" t="s">
+        <v>255</v>
+      </c>
+      <c r="D65" t="s">
+        <v>256</v>
+      </c>
+      <c r="E65" t="s">
+        <v>257</v>
+      </c>
+      <c r="F65" t="s">
+        <v>258</v>
+      </c>
+      <c r="G65">
+        <v>2</v>
+      </c>
+      <c r="H65">
+        <v>138</v>
+      </c>
+      <c r="I65">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>67</v>
+      </c>
+      <c r="B66">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>259</v>
+      </c>
+      <c r="D66" t="s">
+        <v>260</v>
+      </c>
+      <c r="E66" t="s">
+        <v>261</v>
+      </c>
+      <c r="F66" t="s">
+        <v>262</v>
+      </c>
+      <c r="G66">
+        <v>2</v>
+      </c>
+      <c r="H66" t="s">
+        <v>18</v>
+      </c>
+      <c r="I66">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>68</v>
+      </c>
+      <c r="B67">
+        <v>6</v>
+      </c>
+      <c r="C67" t="s">
+        <v>263</v>
+      </c>
+      <c r="D67" t="s">
+        <v>264</v>
+      </c>
+      <c r="E67" t="s">
+        <v>265</v>
+      </c>
+      <c r="F67" t="s">
+        <v>266</v>
+      </c>
+      <c r="G67">
+        <v>2</v>
+      </c>
+      <c r="H67">
+        <v>123</v>
+      </c>
+      <c r="I67">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>69</v>
+      </c>
+      <c r="B68">
+        <v>7</v>
+      </c>
+      <c r="C68" t="s">
+        <v>267</v>
+      </c>
+      <c r="D68" t="s">
+        <v>268</v>
+      </c>
+      <c r="E68" t="s">
+        <v>269</v>
+      </c>
+      <c r="F68" t="s">
+        <v>270</v>
+      </c>
+      <c r="G68">
+        <v>2</v>
+      </c>
+      <c r="H68">
+        <v>191</v>
+      </c>
+      <c r="I68">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>70</v>
+      </c>
+      <c r="B69">
+        <v>10</v>
+      </c>
+      <c r="C69" t="s">
+        <v>271</v>
+      </c>
+      <c r="D69" t="s">
+        <v>272</v>
+      </c>
+      <c r="E69" t="s">
+        <v>271</v>
+      </c>
+      <c r="F69" t="s">
+        <v>272</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>999</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>71</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>273</v>
+      </c>
+      <c r="D70" t="s">
+        <v>274</v>
+      </c>
+      <c r="E70" t="s">
+        <v>275</v>
+      </c>
+      <c r="F70" t="s">
+        <v>276</v>
+      </c>
+      <c r="G70">
+        <v>2</v>
+      </c>
+      <c r="H70">
+        <v>184</v>
+      </c>
+      <c r="I70">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>72</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71" t="s">
+        <v>277</v>
+      </c>
+      <c r="D71" t="s">
+        <v>278</v>
+      </c>
+      <c r="E71" t="s">
+        <v>162</v>
+      </c>
+      <c r="F71" t="s">
+        <v>279</v>
+      </c>
+      <c r="G71">
+        <v>2</v>
+      </c>
+      <c r="H71">
+        <v>125</v>
+      </c>
+      <c r="I71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>73</v>
+      </c>
+      <c r="B72">
+        <v>4</v>
+      </c>
+      <c r="C72" t="s">
+        <v>280</v>
+      </c>
+      <c r="D72" t="s">
+        <v>177</v>
+      </c>
+      <c r="E72" t="s">
+        <v>281</v>
+      </c>
+      <c r="F72" t="s">
+        <v>282</v>
+      </c>
+      <c r="G72">
+        <v>2</v>
+      </c>
+      <c r="H72">
+        <v>52</v>
+      </c>
+      <c r="I72">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W236"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D48" sqref="D47:D48"/>
     </sheetView>
   </sheetViews>
@@ -14977,2115 +21336,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I72"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="99.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>704</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>702</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>709</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>10</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>20</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" t="s">
-        <v>74</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" t="s">
-        <v>77</v>
-      </c>
-      <c r="F17" t="s">
-        <v>78</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" t="s">
-        <v>82</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>20</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" t="s">
-        <v>86</v>
-      </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-      <c r="H19">
-        <v>42</v>
-      </c>
-      <c r="I19">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>21</v>
-      </c>
-      <c r="B20">
-        <v>5</v>
-      </c>
-      <c r="C20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" t="s">
-        <v>88</v>
-      </c>
-      <c r="E20" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" t="s">
-        <v>90</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>22</v>
-      </c>
-      <c r="B21">
-        <v>6</v>
-      </c>
-      <c r="C21" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" t="s">
-        <v>92</v>
-      </c>
-      <c r="E21" t="s">
-        <v>93</v>
-      </c>
-      <c r="F21" t="s">
-        <v>94</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>23</v>
-      </c>
-      <c r="B22">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" t="s">
-        <v>96</v>
-      </c>
-      <c r="E22" t="s">
-        <v>97</v>
-      </c>
-      <c r="F22" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>24</v>
-      </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E23" t="s">
-        <v>101</v>
-      </c>
-      <c r="F23" t="s">
-        <v>102</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>25</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24" t="s">
-        <v>103</v>
-      </c>
-      <c r="D24" t="s">
-        <v>104</v>
-      </c>
-      <c r="E24" t="s">
-        <v>105</v>
-      </c>
-      <c r="F24" t="s">
-        <v>106</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>26</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>107</v>
-      </c>
-      <c r="D25" t="s">
-        <v>108</v>
-      </c>
-      <c r="E25" t="s">
-        <v>109</v>
-      </c>
-      <c r="F25" t="s">
-        <v>110</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>27</v>
-      </c>
-      <c r="B26">
-        <v>7</v>
-      </c>
-      <c r="C26" t="s">
-        <v>111</v>
-      </c>
-      <c r="D26" t="s">
-        <v>112</v>
-      </c>
-      <c r="E26" t="s">
-        <v>113</v>
-      </c>
-      <c r="F26" t="s">
-        <v>114</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>28</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>115</v>
-      </c>
-      <c r="D27" t="s">
-        <v>116</v>
-      </c>
-      <c r="E27" t="s">
-        <v>117</v>
-      </c>
-      <c r="F27" t="s">
-        <v>118</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>29</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28" t="s">
-        <v>119</v>
-      </c>
-      <c r="D28" t="s">
-        <v>120</v>
-      </c>
-      <c r="E28" t="s">
-        <v>121</v>
-      </c>
-      <c r="F28" t="s">
-        <v>122</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>30</v>
-      </c>
-      <c r="B29">
-        <v>3</v>
-      </c>
-      <c r="C29" t="s">
-        <v>123</v>
-      </c>
-      <c r="D29" t="s">
-        <v>124</v>
-      </c>
-      <c r="E29" t="s">
-        <v>125</v>
-      </c>
-      <c r="F29" t="s">
-        <v>126</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I29">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>31</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
-        <v>127</v>
-      </c>
-      <c r="D30" t="s">
-        <v>128</v>
-      </c>
-      <c r="E30" t="s">
-        <v>129</v>
-      </c>
-      <c r="F30" t="s">
-        <v>130</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I30">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>32</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
-        <v>131</v>
-      </c>
-      <c r="D31" t="s">
-        <v>132</v>
-      </c>
-      <c r="E31" t="s">
-        <v>131</v>
-      </c>
-      <c r="F31" t="s">
-        <v>133</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31" t="s">
-        <v>18</v>
-      </c>
-      <c r="I31">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>33</v>
-      </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
-      <c r="C32" t="s">
-        <v>134</v>
-      </c>
-      <c r="D32" t="s">
-        <v>135</v>
-      </c>
-      <c r="E32" t="s">
-        <v>136</v>
-      </c>
-      <c r="F32" t="s">
-        <v>137</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>34</v>
-      </c>
-      <c r="B33">
-        <v>3</v>
-      </c>
-      <c r="C33" t="s">
-        <v>138</v>
-      </c>
-      <c r="D33" t="s">
-        <v>139</v>
-      </c>
-      <c r="E33" t="s">
-        <v>140</v>
-      </c>
-      <c r="F33" t="s">
-        <v>141</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33" t="s">
-        <v>18</v>
-      </c>
-      <c r="I33">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>35</v>
-      </c>
-      <c r="B34">
-        <v>4</v>
-      </c>
-      <c r="C34" t="s">
-        <v>142</v>
-      </c>
-      <c r="D34" t="s">
-        <v>143</v>
-      </c>
-      <c r="E34" t="s">
-        <v>144</v>
-      </c>
-      <c r="F34" t="s">
-        <v>145</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34" t="s">
-        <v>18</v>
-      </c>
-      <c r="I34">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>36</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
-        <v>146</v>
-      </c>
-      <c r="D35" t="s">
-        <v>147</v>
-      </c>
-      <c r="E35" t="s">
-        <v>148</v>
-      </c>
-      <c r="F35" t="s">
-        <v>149</v>
-      </c>
-      <c r="G35">
-        <v>2</v>
-      </c>
-      <c r="H35">
-        <v>81</v>
-      </c>
-      <c r="I35">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>37</v>
-      </c>
-      <c r="B36">
-        <v>2</v>
-      </c>
-      <c r="C36" t="s">
-        <v>150</v>
-      </c>
-      <c r="D36" t="s">
-        <v>151</v>
-      </c>
-      <c r="E36" t="s">
-        <v>152</v>
-      </c>
-      <c r="F36" t="s">
-        <v>153</v>
-      </c>
-      <c r="G36">
-        <v>2</v>
-      </c>
-      <c r="H36">
-        <v>82</v>
-      </c>
-      <c r="I36">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>38</v>
-      </c>
-      <c r="B37">
-        <v>3</v>
-      </c>
-      <c r="C37" t="s">
-        <v>154</v>
-      </c>
-      <c r="D37" t="s">
-        <v>155</v>
-      </c>
-      <c r="E37" t="s">
-        <v>156</v>
-      </c>
-      <c r="F37" t="s">
-        <v>157</v>
-      </c>
-      <c r="G37">
-        <v>2</v>
-      </c>
-      <c r="H37">
-        <v>83</v>
-      </c>
-      <c r="I37">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>39</v>
-      </c>
-      <c r="B38">
-        <v>4</v>
-      </c>
-      <c r="C38" t="s">
-        <v>158</v>
-      </c>
-      <c r="D38" t="s">
-        <v>159</v>
-      </c>
-      <c r="E38" t="s">
-        <v>158</v>
-      </c>
-      <c r="F38" t="s">
-        <v>159</v>
-      </c>
-      <c r="G38">
-        <v>2</v>
-      </c>
-      <c r="H38">
-        <v>71</v>
-      </c>
-      <c r="I38">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>40</v>
-      </c>
-      <c r="B39">
-        <v>5</v>
-      </c>
-      <c r="C39" t="s">
-        <v>160</v>
-      </c>
-      <c r="D39" t="s">
-        <v>161</v>
-      </c>
-      <c r="E39" t="s">
-        <v>162</v>
-      </c>
-      <c r="F39" t="s">
-        <v>163</v>
-      </c>
-      <c r="G39">
-        <v>2</v>
-      </c>
-      <c r="H39" t="s">
-        <v>18</v>
-      </c>
-      <c r="I39">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>41</v>
-      </c>
-      <c r="B40">
-        <v>6</v>
-      </c>
-      <c r="C40" t="s">
-        <v>164</v>
-      </c>
-      <c r="D40" t="s">
-        <v>165</v>
-      </c>
-      <c r="E40" t="s">
-        <v>166</v>
-      </c>
-      <c r="F40" t="s">
-        <v>167</v>
-      </c>
-      <c r="G40">
-        <v>2</v>
-      </c>
-      <c r="H40" t="s">
-        <v>18</v>
-      </c>
-      <c r="I40">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>42</v>
-      </c>
-      <c r="B41">
-        <v>6</v>
-      </c>
-      <c r="C41" t="s">
-        <v>168</v>
-      </c>
-      <c r="D41" t="s">
-        <v>169</v>
-      </c>
-      <c r="E41" t="s">
-        <v>170</v>
-      </c>
-      <c r="F41" t="s">
-        <v>171</v>
-      </c>
-      <c r="G41">
-        <v>2</v>
-      </c>
-      <c r="H41">
-        <v>31</v>
-      </c>
-      <c r="I41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>43</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
-        <v>172</v>
-      </c>
-      <c r="D42" t="s">
-        <v>173</v>
-      </c>
-      <c r="E42" t="s">
-        <v>172</v>
-      </c>
-      <c r="F42" t="s">
-        <v>173</v>
-      </c>
-      <c r="G42">
-        <v>3</v>
-      </c>
-      <c r="H42">
-        <v>71</v>
-      </c>
-      <c r="I42">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>44</v>
-      </c>
-      <c r="B43">
-        <v>2</v>
-      </c>
-      <c r="C43" t="s">
-        <v>174</v>
-      </c>
-      <c r="D43" t="s">
-        <v>175</v>
-      </c>
-      <c r="E43" t="s">
-        <v>174</v>
-      </c>
-      <c r="F43" t="s">
-        <v>175</v>
-      </c>
-      <c r="G43">
-        <v>3</v>
-      </c>
-      <c r="H43">
-        <v>72</v>
-      </c>
-      <c r="I43">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>45</v>
-      </c>
-      <c r="B44">
-        <v>7</v>
-      </c>
-      <c r="C44" t="s">
-        <v>176</v>
-      </c>
-      <c r="D44" t="s">
-        <v>177</v>
-      </c>
-      <c r="E44" t="s">
-        <v>178</v>
-      </c>
-      <c r="F44" t="s">
-        <v>179</v>
-      </c>
-      <c r="G44">
-        <v>2</v>
-      </c>
-      <c r="H44">
-        <v>38</v>
-      </c>
-      <c r="I44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>46</v>
-      </c>
-      <c r="B45">
-        <v>2</v>
-      </c>
-      <c r="C45" t="s">
-        <v>180</v>
-      </c>
-      <c r="D45" t="s">
-        <v>181</v>
-      </c>
-      <c r="E45" t="s">
-        <v>182</v>
-      </c>
-      <c r="F45" t="s">
-        <v>183</v>
-      </c>
-      <c r="G45">
-        <v>2</v>
-      </c>
-      <c r="H45">
-        <v>40</v>
-      </c>
-      <c r="I45">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>47</v>
-      </c>
-      <c r="B46">
-        <v>3</v>
-      </c>
-      <c r="C46" t="s">
-        <v>184</v>
-      </c>
-      <c r="D46" t="s">
-        <v>185</v>
-      </c>
-      <c r="E46" t="s">
-        <v>186</v>
-      </c>
-      <c r="F46" t="s">
-        <v>187</v>
-      </c>
-      <c r="G46">
-        <v>2</v>
-      </c>
-      <c r="H46">
-        <v>54</v>
-      </c>
-      <c r="I46">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>48</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47" t="s">
-        <v>188</v>
-      </c>
-      <c r="D47" t="s">
-        <v>189</v>
-      </c>
-      <c r="E47" t="s">
-        <v>188</v>
-      </c>
-      <c r="F47" t="s">
-        <v>189</v>
-      </c>
-      <c r="G47">
-        <v>2</v>
-      </c>
-      <c r="H47">
-        <v>131</v>
-      </c>
-      <c r="I47">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>49</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48" t="s">
-        <v>190</v>
-      </c>
-      <c r="D48" t="s">
-        <v>191</v>
-      </c>
-      <c r="E48" t="s">
-        <v>192</v>
-      </c>
-      <c r="F48" t="s">
-        <v>193</v>
-      </c>
-      <c r="G48">
-        <v>3</v>
-      </c>
-      <c r="H48">
-        <v>131</v>
-      </c>
-      <c r="I48">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>50</v>
-      </c>
-      <c r="B49">
-        <v>2</v>
-      </c>
-      <c r="C49" t="s">
-        <v>194</v>
-      </c>
-      <c r="D49" t="s">
-        <v>195</v>
-      </c>
-      <c r="E49" t="s">
-        <v>196</v>
-      </c>
-      <c r="F49" t="s">
-        <v>197</v>
-      </c>
-      <c r="G49">
-        <v>3</v>
-      </c>
-      <c r="H49">
-        <v>132</v>
-      </c>
-      <c r="I49">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>51</v>
-      </c>
-      <c r="B50">
-        <v>3</v>
-      </c>
-      <c r="C50" t="s">
-        <v>198</v>
-      </c>
-      <c r="D50" t="s">
-        <v>199</v>
-      </c>
-      <c r="E50" t="s">
-        <v>200</v>
-      </c>
-      <c r="F50" t="s">
-        <v>201</v>
-      </c>
-      <c r="G50">
-        <v>3</v>
-      </c>
-      <c r="H50">
-        <v>133</v>
-      </c>
-      <c r="I50">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>52</v>
-      </c>
-      <c r="B51">
-        <v>8</v>
-      </c>
-      <c r="C51" t="s">
-        <v>202</v>
-      </c>
-      <c r="D51" t="s">
-        <v>135</v>
-      </c>
-      <c r="E51" t="s">
-        <v>203</v>
-      </c>
-      <c r="F51" t="s">
-        <v>204</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="H51">
-        <v>300</v>
-      </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>53</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52" t="s">
-        <v>205</v>
-      </c>
-      <c r="D52" t="s">
-        <v>206</v>
-      </c>
-      <c r="E52" t="s">
-        <v>207</v>
-      </c>
-      <c r="F52" t="s">
-        <v>208</v>
-      </c>
-      <c r="G52">
-        <v>2</v>
-      </c>
-      <c r="H52">
-        <v>301</v>
-      </c>
-      <c r="I52">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>54</v>
-      </c>
-      <c r="B53">
-        <v>2</v>
-      </c>
-      <c r="C53" t="s">
-        <v>83</v>
-      </c>
-      <c r="D53" t="s">
-        <v>206</v>
-      </c>
-      <c r="E53" t="s">
-        <v>209</v>
-      </c>
-      <c r="F53" t="s">
-        <v>210</v>
-      </c>
-      <c r="G53">
-        <v>2</v>
-      </c>
-      <c r="H53">
-        <v>302</v>
-      </c>
-      <c r="I53">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>55</v>
-      </c>
-      <c r="B54">
-        <v>3</v>
-      </c>
-      <c r="C54" t="s">
-        <v>211</v>
-      </c>
-      <c r="D54" t="s">
-        <v>212</v>
-      </c>
-      <c r="E54" t="s">
-        <v>213</v>
-      </c>
-      <c r="F54" t="s">
-        <v>214</v>
-      </c>
-      <c r="G54">
-        <v>2</v>
-      </c>
-      <c r="H54">
-        <v>304</v>
-      </c>
-      <c r="I54">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>56</v>
-      </c>
-      <c r="B55">
-        <v>4</v>
-      </c>
-      <c r="C55" t="s">
-        <v>215</v>
-      </c>
-      <c r="D55" t="s">
-        <v>216</v>
-      </c>
-      <c r="E55" t="s">
-        <v>217</v>
-      </c>
-      <c r="F55" t="s">
-        <v>218</v>
-      </c>
-      <c r="G55">
-        <v>2</v>
-      </c>
-      <c r="H55">
-        <v>305</v>
-      </c>
-      <c r="I55">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>57</v>
-      </c>
-      <c r="B56">
-        <v>5</v>
-      </c>
-      <c r="C56" t="s">
-        <v>219</v>
-      </c>
-      <c r="D56" t="s">
-        <v>220</v>
-      </c>
-      <c r="E56" t="s">
-        <v>221</v>
-      </c>
-      <c r="F56" t="s">
-        <v>222</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>307</v>
-      </c>
-      <c r="I56">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>58</v>
-      </c>
-      <c r="B57">
-        <v>9</v>
-      </c>
-      <c r="C57" t="s">
-        <v>223</v>
-      </c>
-      <c r="D57" t="s">
-        <v>224</v>
-      </c>
-      <c r="E57" t="s">
-        <v>225</v>
-      </c>
-      <c r="F57" t="s">
-        <v>226</v>
-      </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
-      <c r="H57" t="s">
-        <v>18</v>
-      </c>
-      <c r="I57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>59</v>
-      </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-      <c r="C58" t="s">
-        <v>227</v>
-      </c>
-      <c r="D58" t="s">
-        <v>228</v>
-      </c>
-      <c r="E58" t="s">
-        <v>229</v>
-      </c>
-      <c r="F58" t="s">
-        <v>230</v>
-      </c>
-      <c r="G58">
-        <v>2</v>
-      </c>
-      <c r="H58">
-        <v>171</v>
-      </c>
-      <c r="I58">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>60</v>
-      </c>
-      <c r="B59">
-        <v>2</v>
-      </c>
-      <c r="C59" t="s">
-        <v>231</v>
-      </c>
-      <c r="D59" t="s">
-        <v>232</v>
-      </c>
-      <c r="E59" t="s">
-        <v>233</v>
-      </c>
-      <c r="F59" t="s">
-        <v>234</v>
-      </c>
-      <c r="G59">
-        <v>2</v>
-      </c>
-      <c r="H59">
-        <v>172</v>
-      </c>
-      <c r="I59">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>61</v>
-      </c>
-      <c r="B60">
-        <v>3</v>
-      </c>
-      <c r="C60" t="s">
-        <v>235</v>
-      </c>
-      <c r="D60" t="s">
-        <v>236</v>
-      </c>
-      <c r="E60" t="s">
-        <v>237</v>
-      </c>
-      <c r="F60" t="s">
-        <v>238</v>
-      </c>
-      <c r="G60">
-        <v>2</v>
-      </c>
-      <c r="H60">
-        <v>173</v>
-      </c>
-      <c r="I60">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>62</v>
-      </c>
-      <c r="B61">
-        <v>4</v>
-      </c>
-      <c r="C61" t="s">
-        <v>239</v>
-      </c>
-      <c r="D61" t="s">
-        <v>240</v>
-      </c>
-      <c r="E61" t="s">
-        <v>241</v>
-      </c>
-      <c r="F61" t="s">
-        <v>242</v>
-      </c>
-      <c r="G61">
-        <v>2</v>
-      </c>
-      <c r="H61">
-        <v>162</v>
-      </c>
-      <c r="I61">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>63</v>
-      </c>
-      <c r="B62">
-        <v>5</v>
-      </c>
-      <c r="C62" t="s">
-        <v>243</v>
-      </c>
-      <c r="D62" t="s">
-        <v>244</v>
-      </c>
-      <c r="E62" t="s">
-        <v>245</v>
-      </c>
-      <c r="F62" t="s">
-        <v>246</v>
-      </c>
-      <c r="G62">
-        <v>2</v>
-      </c>
-      <c r="H62">
-        <v>163</v>
-      </c>
-      <c r="I62">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>64</v>
-      </c>
-      <c r="B63">
-        <v>2</v>
-      </c>
-      <c r="C63" t="s">
-        <v>247</v>
-      </c>
-      <c r="D63" t="s">
-        <v>248</v>
-      </c>
-      <c r="E63" t="s">
-        <v>249</v>
-      </c>
-      <c r="F63" t="s">
-        <v>250</v>
-      </c>
-      <c r="G63">
-        <v>2</v>
-      </c>
-      <c r="H63">
-        <v>148</v>
-      </c>
-      <c r="I63">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>65</v>
-      </c>
-      <c r="B64">
-        <v>3</v>
-      </c>
-      <c r="C64" t="s">
-        <v>251</v>
-      </c>
-      <c r="D64" t="s">
-        <v>252</v>
-      </c>
-      <c r="E64" t="s">
-        <v>253</v>
-      </c>
-      <c r="F64" t="s">
-        <v>254</v>
-      </c>
-      <c r="G64">
-        <v>2</v>
-      </c>
-      <c r="H64">
-        <v>141</v>
-      </c>
-      <c r="I64">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>66</v>
-      </c>
-      <c r="B65">
-        <v>4</v>
-      </c>
-      <c r="C65" t="s">
-        <v>255</v>
-      </c>
-      <c r="D65" t="s">
-        <v>256</v>
-      </c>
-      <c r="E65" t="s">
-        <v>257</v>
-      </c>
-      <c r="F65" t="s">
-        <v>258</v>
-      </c>
-      <c r="G65">
-        <v>2</v>
-      </c>
-      <c r="H65">
-        <v>138</v>
-      </c>
-      <c r="I65">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>67</v>
-      </c>
-      <c r="B66">
-        <v>5</v>
-      </c>
-      <c r="C66" t="s">
-        <v>259</v>
-      </c>
-      <c r="D66" t="s">
-        <v>260</v>
-      </c>
-      <c r="E66" t="s">
-        <v>261</v>
-      </c>
-      <c r="F66" t="s">
-        <v>262</v>
-      </c>
-      <c r="G66">
-        <v>2</v>
-      </c>
-      <c r="H66" t="s">
-        <v>18</v>
-      </c>
-      <c r="I66">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>68</v>
-      </c>
-      <c r="B67">
-        <v>6</v>
-      </c>
-      <c r="C67" t="s">
-        <v>263</v>
-      </c>
-      <c r="D67" t="s">
-        <v>264</v>
-      </c>
-      <c r="E67" t="s">
-        <v>265</v>
-      </c>
-      <c r="F67" t="s">
-        <v>266</v>
-      </c>
-      <c r="G67">
-        <v>2</v>
-      </c>
-      <c r="H67">
-        <v>123</v>
-      </c>
-      <c r="I67">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>69</v>
-      </c>
-      <c r="B68">
-        <v>7</v>
-      </c>
-      <c r="C68" t="s">
-        <v>267</v>
-      </c>
-      <c r="D68" t="s">
-        <v>268</v>
-      </c>
-      <c r="E68" t="s">
-        <v>269</v>
-      </c>
-      <c r="F68" t="s">
-        <v>270</v>
-      </c>
-      <c r="G68">
-        <v>2</v>
-      </c>
-      <c r="H68">
-        <v>191</v>
-      </c>
-      <c r="I68">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>70</v>
-      </c>
-      <c r="B69">
-        <v>10</v>
-      </c>
-      <c r="C69" t="s">
-        <v>271</v>
-      </c>
-      <c r="D69" t="s">
-        <v>272</v>
-      </c>
-      <c r="E69" t="s">
-        <v>271</v>
-      </c>
-      <c r="F69" t="s">
-        <v>272</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>999</v>
-      </c>
-      <c r="I69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>71</v>
-      </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-      <c r="C70" t="s">
-        <v>273</v>
-      </c>
-      <c r="D70" t="s">
-        <v>274</v>
-      </c>
-      <c r="E70" t="s">
-        <v>275</v>
-      </c>
-      <c r="F70" t="s">
-        <v>276</v>
-      </c>
-      <c r="G70">
-        <v>2</v>
-      </c>
-      <c r="H70">
-        <v>184</v>
-      </c>
-      <c r="I70">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>72</v>
-      </c>
-      <c r="B71">
-        <v>2</v>
-      </c>
-      <c r="C71" t="s">
-        <v>277</v>
-      </c>
-      <c r="D71" t="s">
-        <v>278</v>
-      </c>
-      <c r="E71" t="s">
-        <v>162</v>
-      </c>
-      <c r="F71" t="s">
-        <v>279</v>
-      </c>
-      <c r="G71">
-        <v>2</v>
-      </c>
-      <c r="H71">
-        <v>125</v>
-      </c>
-      <c r="I71">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>73</v>
-      </c>
-      <c r="B72">
-        <v>4</v>
-      </c>
-      <c r="C72" t="s">
-        <v>280</v>
-      </c>
-      <c r="D72" t="s">
-        <v>177</v>
-      </c>
-      <c r="E72" t="s">
-        <v>281</v>
-      </c>
-      <c r="F72" t="s">
-        <v>282</v>
-      </c>
-      <c r="G72">
-        <v>2</v>
-      </c>
-      <c r="H72">
-        <v>52</v>
-      </c>
-      <c r="I72">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>